--- a/租房.xlsx
+++ b/租房.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12020"/>
+    <workbookView windowWidth="14490" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="吉大房产" sheetId="1" r:id="rId1"/>
     <sheet name="链家" sheetId="2" r:id="rId2"/>
-    <sheet name="安居客" sheetId="3" r:id="rId3"/>
+    <sheet name="链家1" sheetId="4" r:id="rId3"/>
+    <sheet name="安居客" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>小区</t>
   </si>
@@ -71,7 +72,8 @@
     <t>1.水电网燃气费用是否都是民用？
 2.是否有车位？
 3.后期维保服务是怎样的？
-4.入职之前是否把房间打扫一下？
+4.入住之前是否把房间打扫一下？
+5.太高层和顶楼、一楼不考虑
 问居委号码，登记一下</t>
   </si>
   <si>
@@ -97,6 +99,39 @@
   </si>
   <si>
     <t>4/18</t>
+  </si>
+  <si>
+    <t>预约看房</t>
+  </si>
+  <si>
+    <t>沃野花园</t>
+  </si>
+  <si>
+    <t>甘泉路81号</t>
+  </si>
+  <si>
+    <t>17/32</t>
+  </si>
+  <si>
+    <t>8/32</t>
+  </si>
+  <si>
+    <t>租售（包含车位）</t>
+  </si>
+  <si>
+    <t>闫小艳</t>
+  </si>
+  <si>
+    <t>徽商优山美地</t>
+  </si>
+  <si>
+    <t>徽商城市风景</t>
+  </si>
+  <si>
+    <t>11/？</t>
+  </si>
+  <si>
+    <t>17/18</t>
   </si>
 </sst>
 </file>
@@ -104,15 +139,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -126,15 +189,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="5"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -147,8 +232,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,24 +257,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,8 +280,39 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,76 +327,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,187 +342,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,6 +533,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,11 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,7 +588,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,47 +608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -584,153 +622,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,8 +799,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -759,69 +808,69 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1088,34 +1137,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="25.1428571428571" customWidth="1"/>
-    <col min="2" max="3" width="38.2321428571429" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.6071428571429" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="5"/>
-    <col min="6" max="6" width="26.4821428571429" customWidth="1"/>
+    <col min="1" max="1" width="25.1416666666667" customWidth="1"/>
+    <col min="2" max="3" width="38.2333333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.6083333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.14166666666667" style="4"/>
+    <col min="6" max="6" width="26.4833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -1135,14 +1184,14 @@
       <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2400</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="2:6">
+    <row r="3" spans="2:6">
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1152,27 +1201,27 @@
       <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>2300</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>2400</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1195,7 +1244,7 @@
       <c r="D10" s="7"/>
     </row>
     <row r="11" ht="165" customHeight="1" spans="1:4">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="7"/>
@@ -1207,7 +1256,7 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="4:4">
@@ -1241,20 +1290,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="20.6875" customWidth="1"/>
-    <col min="3" max="3" width="25.2857142857143" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="1"/>
-    <col min="6" max="6" width="19.3392857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.6916666666667" customWidth="1"/>
+    <col min="3" max="3" width="25.2833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.14166666666667" style="1"/>
+    <col min="6" max="6" width="19.3416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1290,7 +1339,7 @@
       <c r="E2">
         <v>2300</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1304,11 +1353,11 @@
       <c r="E3">
         <v>2500</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="28" customHeight="1" spans="2:5">
+    <row r="4" ht="28" customHeight="1" spans="2:6">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1317,6 +1366,40 @@
       </c>
       <c r="E4">
         <v>2600</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>2500</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>2600</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1409,91 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>2500</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="19" customHeight="1" spans="2:5">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="4" ht="57" spans="2:6">
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2400</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1334,12 +1501,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="3" max="3" width="41.0625" customWidth="1"/>
-    <col min="4" max="4" width="18.1428571428571" customWidth="1"/>
-    <col min="5" max="5" width="12.6428571428571" customWidth="1"/>
-    <col min="6" max="6" width="16.5089285714286" customWidth="1"/>
+    <col min="3" max="3" width="41.0666666666667" customWidth="1"/>
+    <col min="4" max="4" width="18.1416666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.6416666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.5083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
